--- a/results/consolidated/Stress_Testing.xlsx
+++ b/results/consolidated/Stress_Testing.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Stress_Test_Results" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Summary_Statistics" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Forecast_Under_Stress" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Forecast_Summary" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Asset</t>
   </si>
@@ -127,6 +129,48 @@
   </si>
   <si>
     <t xml:space="preserve">mean_volatility_increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF_GARCH_MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF_GARCH_MAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard_GARCH_MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard_GARCH_MAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE_Improvement_Pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_Test_Periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sGARCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGARCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gjrGARCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eGARCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_NF_GARCH_MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_Standard_GARCH_MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_MSE_Improvement_Pct</t>
   </si>
 </sst>
 </file>
@@ -2108,4 +2152,1504 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.000193466076864602</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0104256602740424</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.000181010224401328</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0101754695102639</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-6.88129773026386</v>
+      </c>
+      <c r="J2" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.000169425484974936</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00979488622446878</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.000173084082239777</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00986452620090229</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.11376876342279</v>
+      </c>
+      <c r="J3" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000198798394368036</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0107681123773646</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.000186382694559611</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0103607114259397</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-6.66140160585282</v>
+      </c>
+      <c r="J4" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.000158897306880347</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00817413515243943</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0000713100425525571</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.00691952806751367</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-122.825988027193</v>
+      </c>
+      <c r="J5" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0000523438343597986</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00564241359788745</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.000121020868400151</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.00828901839589263</v>
+      </c>
+      <c r="I6" t="n">
+        <v>56.7480922490774</v>
+      </c>
+      <c r="J6" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0000390604229152326</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0047689201121424</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0000455688503947384</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.00539792332968993</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.282623816767</v>
+      </c>
+      <c r="J7" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0000464292659016968</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00523921061157367</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00005021437716793</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.00575846949939422</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.53790344461469</v>
+      </c>
+      <c r="J8" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.000238581683572729</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0116446228302278</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.000268794051743971</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0126665192032668</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.2399690302743</v>
+      </c>
+      <c r="J9" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.000239797963023127</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0118100724216768</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.000277952200925356</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0129521549551023</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.7269062001332</v>
+      </c>
+      <c r="J10" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.000259834047738169</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0122554825288964</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.000270698736847279</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.012726673787497</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.01357214874623</v>
+      </c>
+      <c r="J11" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.000102230042513433</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.00793309736000618</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.000128900220381869</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.00892895322360497</v>
+      </c>
+      <c r="I12" t="n">
+        <v>20.6905603337417</v>
+      </c>
+      <c r="J12" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16615069116756601806484600262820600426680064442008044262626264442042</v>
+      </c>
+      <c r="F13" t="n">
+        <v>530670652072916271166268404240040</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2544252433649152005028242606608002424082846284482680000644420468024</v>
+      </c>
+      <c r="H13" t="n">
+        <v>207660595292609154788688088666846</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-553.043263200344</v>
+      </c>
+      <c r="J13" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.000097487182849055</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.00741374138269694</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.000110318976936474</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.00804924149941966</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11.6315383298086</v>
+      </c>
+      <c r="J14" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.000123386967173028</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.00863570424856497</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.000118060464060201</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.00843634518344065</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-4.51167387425393</v>
+      </c>
+      <c r="J15" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.000487978114862318</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0155851181259128</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.000550054096063248</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.016849816265974</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11.2854320411772</v>
+      </c>
+      <c r="J16" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.000509855248883742</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0164319444074425</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.000531996674448781</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.016530264480168</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.16194811517958</v>
+      </c>
+      <c r="J17" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.000559702439995254</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0177720146197229</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0005513104399593</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0168826766920618</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-1.52219138759178</v>
+      </c>
+      <c r="J18" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.000295513550777303</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0132668614433611</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.00028108105450633</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0128032922190265</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-5.13463858185708</v>
+      </c>
+      <c r="J19" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.000256669488959662</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0120457132953336</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.000267026517801658</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0123546488861435</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.87865180105016</v>
+      </c>
+      <c r="J20" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.000371387209522612</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0154132641829075</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.000274294887771454</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0125742679007307</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-35.3970584504866</v>
+      </c>
+      <c r="J21" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.00388387544426621</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0497142938711272</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.00385100225626609</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0502176849755694</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.853626817450772</v>
+      </c>
+      <c r="J22" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.00361802739699608</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0490900930827672</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.00378278415584369</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0499573680231899</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.35543642089887</v>
+      </c>
+      <c r="J23" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.00390352126140878</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0503200474584419</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.00383979907176212</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0501822976079199</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-1.65951885647544</v>
+      </c>
+      <c r="J24" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0036261728306563</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0462201789705684</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.00381240336070278</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0465621612053509</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.88485903580131</v>
+      </c>
+      <c r="J25" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2238252498900.45</v>
+      </c>
+      <c r="F26" t="n">
+        <v>195129.753283825</v>
+      </c>
+      <c r="G26" t="n">
+        <v>683473306874205952</v>
+      </c>
+      <c r="H26" t="n">
+        <v>111320949.59593</v>
+      </c>
+      <c r="I26" t="n">
+        <v>99.999672517935</v>
+      </c>
+      <c r="J26" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.00375317292037897</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0477601368932166</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.00374329014461856</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0461813385621833</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.264013084174577</v>
+      </c>
+      <c r="J27" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.00378568216544514</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0467788914917555</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.00359492075854226</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0455432845826272</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-5.30641479230367</v>
+      </c>
+      <c r="J28" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00163714308440836</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0302262168754486</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00173007537746993</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0317794961965484</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.37157480372189</v>
+      </c>
+      <c r="J29" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.00193033154355349</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0332876981172616</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0017565286796778</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0321060024949954</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-9.89467840101408</v>
+      </c>
+      <c r="J30" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.00175123397383295</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0316055741569909</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.00172525893052165</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0317189261617256</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-1.5055736186479</v>
+      </c>
+      <c r="J31" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.00220493111291235</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0342582596807023</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.00214112976167384</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0348499281950622</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-2.97979844008303</v>
+      </c>
+      <c r="J32" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.00298156935239599</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.041525336502617</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.00214161421595604</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0348338665005722</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-39.2206556242432</v>
+      </c>
+      <c r="J33" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.00232791613326987</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0370370225186266</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.00214606847390455</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0348823262051082</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-8.47352549914083</v>
+      </c>
+      <c r="J34" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.00320777622580832</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0444468533635436</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.00343609047654079</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0431945002207375</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.64459368259486</v>
+      </c>
+      <c r="J35" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.00266850938247974</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0399697183411929</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.00335032619018976</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0428265570563388</v>
+      </c>
+      <c r="I36" t="n">
+        <v>20.3507589710662</v>
+      </c>
+      <c r="J36" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.00288238442430727</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0426919977922853</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0034375067249464</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0432185949428478</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16.1489807892021</v>
+      </c>
+      <c r="J37" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.00265463512677057</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0398228539890259</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.002049776669016</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0322109390321017</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-29.5085053360926</v>
+      </c>
+      <c r="J38" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.00352067592483066</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0507865193511613</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.00325706987894512</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0487731170286883</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-8.09334941167794</v>
+      </c>
+      <c r="J39" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.00110249239849438</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0252750734662646</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.00263331395073391</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0349598022116142</v>
+      </c>
+      <c r="I40" t="n">
+        <v>58.1328918951305</v>
+      </c>
+      <c r="J40" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.00117708108713315</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.026428042064265</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.00146819505729097</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0268634058876088</v>
+      </c>
+      <c r="I41" t="n">
+        <v>19.8280173136511</v>
+      </c>
+      <c r="J41" t="n">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00137174196099888</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00149018877607356</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.07350618905641</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4153767279189150451626400848280400684420046668002066848484846668068</v>
+      </c>
+      <c r="E3" t="n">
+        <v>636063108412288001582868404402008686028264826628420000466680642086</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-101.097211961252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00130531380474092</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.00127529233645623</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-4.3871253096532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00150706332841838</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.00141410018480556</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-22.4789185026138</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00152265783665185</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00164544533055419</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.80235667828108</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00159257909027508</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00166849276643273</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.4689779115634</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00160813677163042</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00166950441374756</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.46777416834226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>